--- a/biology/Médecine/Hermentaire_Truc/Hermentaire_Truc.xlsx
+++ b/biology/Médecine/Hermentaire_Truc/Hermentaire_Truc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermentaire Truc (1857-1929) est un ophtalmologiste français.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermentaire Truc est né à Draguignan le 8 juin 1857[2], dans une famille pauvre. Tout en travaillant, il réussit à passer ses deux baccalauréats. Il s'inscrit à la Faculté de médecine de Lyon, dont il sort diplômé en 1885. En 1886, il est nommé assistant à la Faculté de médecine de Montpellier. En 1890, il y est nommé professeur d'ophtalmologie, chaire qu'il occupe durant 36 ans[3].
-Il a été à l'origine de la création de la Clinique d'ophtalmologie en 1892[Note 1],[4]. Il a fondé les Écoles-Ateliers d'aveugles régionaux de Montpellier en 1898 et en a été le directeur jusqu'en 1928 et l'École de rééducation des aveugles de guerre en 1915[5].
-En 1912, le roi du Cambodge, Sisowath, atteint de la cataracte doit être opéré. C'est le professeur Truc qui est choisi[6]. Il se rend en bateau à Phnom-Penh, puis opère avec succès le roi à Saïgon. Il rentre en France après une absence de trois mois et demi, est reçu à l’Élysée par le Président Fallières et est promu Officier de la Légion d’Honneur pour service éminent rendu à la France[4].
-À l'occasion de la célébration de son jubilé, une médaille fut gravée par Henri Dropsy[7],[3].
-Il était membre de l'Académie des sciences et lettres de Montpellier[8].
-Il meurt le 24 février 1929[Note 2],[9],[10].
-Sa fille, Émilie, a épousé Charles Dejean qui sera lui-même Professeur de clinique ophtalmologique de la faculté de médecine de Montpellier[11],[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermentaire Truc est né à Draguignan le 8 juin 1857, dans une famille pauvre. Tout en travaillant, il réussit à passer ses deux baccalauréats. Il s'inscrit à la Faculté de médecine de Lyon, dont il sort diplômé en 1885. En 1886, il est nommé assistant à la Faculté de médecine de Montpellier. En 1890, il y est nommé professeur d'ophtalmologie, chaire qu'il occupe durant 36 ans.
+Il a été à l'origine de la création de la Clinique d'ophtalmologie en 1892[Note 1],. Il a fondé les Écoles-Ateliers d'aveugles régionaux de Montpellier en 1898 et en a été le directeur jusqu'en 1928 et l'École de rééducation des aveugles de guerre en 1915.
+En 1912, le roi du Cambodge, Sisowath, atteint de la cataracte doit être opéré. C'est le professeur Truc qui est choisi. Il se rend en bateau à Phnom-Penh, puis opère avec succès le roi à Saïgon. Il rentre en France après une absence de trois mois et demi, est reçu à l’Élysée par le Président Fallières et est promu Officier de la Légion d’Honneur pour service éminent rendu à la France.
+À l'occasion de la célébration de son jubilé, une médaille fut gravée par Henri Dropsy,.
+Il était membre de l'Académie des sciences et lettres de Montpellier.
+Il meurt le 24 février 1929[Note 2].
+Sa fille, Émilie, a épousé Charles Dejean qui sera lui-même Professeur de clinique ophtalmologique de la faculté de médecine de Montpellier,.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titres et travaux scientifiques, Montpellier, E. Montane, 1926
 « Phantopsies ou fantasmagories visuelles d'origine oculaire », Annales d'oculistique, vol. 162, 1925, p. 649–655
@@ -587,11 +603,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chevalier de la Légion d'honneur, 1906[5]
-Officier de la Légion d'honneur, 1913[5]
-Commandeur de la Légion d'honneur, 1928[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chevalier de la Légion d'honneur, 1906
+Officier de la Légion d'honneur, 1913
+Commandeur de la Légion d'honneur, 1928</t>
         </is>
       </c>
     </row>
@@ -619,10 +637,12 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Portrait de Hermentaire Truc par Etienne-William Cot, huile sur toile[13]
-L'Allée Hermantaire Truc à Montpellier présente une plaque commémorative du Professeur Truc[Note 3],[9]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Portrait de Hermentaire Truc par Etienne-William Cot, huile sur toile
+L'Allée Hermantaire Truc à Montpellier présente une plaque commémorative du Professeur Truc[Note 3],</t>
         </is>
       </c>
     </row>
